--- a/data/EPS_Dataset.xlsx
+++ b/data/EPS_Dataset.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C799971-AB4F-49F8-A3F7-B2FD3482FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CD272-FF72-4386-BECB-EDE1E0C3A387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,14 +180,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -506,7 +521,7 @@
     <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -558,7 +573,7 @@
       <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -611,7 +626,7 @@
       <c r="P2" s="2">
         <v>2</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="4">
         <v>27.28</v>
       </c>
     </row>
@@ -664,7 +679,7 @@
       <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <v>14.06</v>
       </c>
     </row>
@@ -717,7 +732,7 @@
       <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <v>1.78</v>
       </c>
     </row>
@@ -770,7 +785,7 @@
       <c r="P5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <v>1.36</v>
       </c>
     </row>
@@ -823,7 +838,7 @@
       <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <v>1.64</v>
       </c>
     </row>
@@ -876,7 +891,7 @@
       <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="4">
         <v>56.29</v>
       </c>
     </row>
@@ -929,7 +944,7 @@
       <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <v>35.49</v>
       </c>
     </row>
@@ -982,7 +997,7 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="4">
         <v>22.87</v>
       </c>
     </row>
@@ -1035,7 +1050,7 @@
       <c r="P10" s="2">
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="4">
         <v>16.23</v>
       </c>
     </row>
@@ -1088,7 +1103,7 @@
       <c r="P11" s="2">
         <v>1</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="4">
         <v>0.97</v>
       </c>
     </row>
@@ -1141,7 +1156,7 @@
       <c r="P12" s="2">
         <v>2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="4">
         <v>2.2799999999999998</v>
       </c>
     </row>
@@ -1194,7 +1209,7 @@
       <c r="P13" s="2">
         <v>2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="4">
         <v>3.16</v>
       </c>
     </row>
@@ -1247,7 +1262,7 @@
       <c r="P14" s="2">
         <v>2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="4">
         <v>2.08</v>
       </c>
     </row>
@@ -1300,7 +1315,7 @@
       <c r="P15" s="2">
         <v>2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="4">
         <v>0.62</v>
       </c>
     </row>
@@ -1353,7 +1368,7 @@
       <c r="P16" s="2">
         <v>2</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="4">
         <v>-30.94</v>
       </c>
     </row>
@@ -1406,7 +1421,7 @@
       <c r="P17" s="2">
         <v>10</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="4">
         <v>1.82</v>
       </c>
     </row>
@@ -1459,7 +1474,7 @@
       <c r="P18" s="2">
         <v>10</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="4">
         <v>1.27</v>
       </c>
     </row>
@@ -1512,7 +1527,7 @@
       <c r="P19" s="2">
         <v>10</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="4">
         <v>-1.53</v>
       </c>
     </row>
@@ -1565,7 +1580,7 @@
       <c r="P20" s="2">
         <v>10</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="4">
         <v>-1.81</v>
       </c>
     </row>
@@ -1618,7 +1633,7 @@
       <c r="P21" s="2">
         <v>10</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="4">
         <v>-20.190000000000001</v>
       </c>
     </row>
@@ -1671,7 +1686,7 @@
       <c r="P22" s="2">
         <v>10</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="4">
         <v>1.56</v>
       </c>
     </row>
@@ -1724,7 +1739,7 @@
       <c r="P23" s="2">
         <v>10</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="4">
         <v>0.8</v>
       </c>
     </row>
@@ -1777,7 +1792,7 @@
       <c r="P24" s="2">
         <v>10</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="4">
         <v>0.17</v>
       </c>
     </row>
@@ -1830,7 +1845,7 @@
       <c r="P25" s="2">
         <v>10</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="4">
         <v>-3.1</v>
       </c>
     </row>
@@ -1883,7 +1898,7 @@
       <c r="P26" s="2">
         <v>10</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="4">
         <v>-11.16</v>
       </c>
     </row>
@@ -1936,7 +1951,7 @@
       <c r="P27" s="2">
         <v>10</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="4">
         <v>12.34</v>
       </c>
     </row>
@@ -1989,7 +2004,7 @@
       <c r="P28" s="2">
         <v>10</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="4">
         <v>7.73</v>
       </c>
     </row>
@@ -2042,7 +2057,7 @@
       <c r="P29" s="2">
         <v>10</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="4">
         <v>4.54</v>
       </c>
     </row>
@@ -2095,7 +2110,7 @@
       <c r="P30" s="2">
         <v>10</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="4">
         <v>-12.49</v>
       </c>
     </row>
@@ -2148,7 +2163,7 @@
       <c r="P31" s="2">
         <v>10</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="4">
         <v>-25.08</v>
       </c>
     </row>
@@ -2201,7 +2216,7 @@
       <c r="P32" s="2">
         <v>10</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="4">
         <v>58.45</v>
       </c>
     </row>
@@ -2254,7 +2269,7 @@
       <c r="P33" s="2">
         <v>10</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="4">
         <v>32.49</v>
       </c>
     </row>
@@ -2307,7 +2322,7 @@
       <c r="P34" s="2">
         <v>10</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="4">
         <v>16.91</v>
       </c>
     </row>
@@ -2360,7 +2375,7 @@
       <c r="P35" s="2">
         <v>10</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="4">
         <v>-26.5</v>
       </c>
     </row>
@@ -2413,7 +2428,7 @@
       <c r="P36" s="2">
         <v>10</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="4">
         <v>4.71</v>
       </c>
     </row>
@@ -2466,7 +2481,7 @@
       <c r="P37" s="2">
         <v>10</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -2519,7 +2534,7 @@
       <c r="P38" s="2">
         <v>10</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="4">
         <v>8.84</v>
       </c>
     </row>
@@ -2572,7 +2587,7 @@
       <c r="P39" s="2">
         <v>10</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="4">
         <v>6.59</v>
       </c>
     </row>
@@ -2625,7 +2640,7 @@
       <c r="P40" s="2">
         <v>10</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="4">
         <v>-9.1</v>
       </c>
     </row>
@@ -2678,7 +2693,7 @@
       <c r="P41" s="2">
         <v>10</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="4">
         <v>-29.79</v>
       </c>
     </row>
@@ -2731,7 +2746,7 @@
       <c r="P42" s="2">
         <v>10</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="4">
         <v>42.41</v>
       </c>
     </row>
@@ -2784,7 +2799,7 @@
       <c r="P43" s="2">
         <v>10</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="4">
         <v>32.380000000000003</v>
       </c>
     </row>
@@ -2837,7 +2852,7 @@
       <c r="P44" s="2">
         <v>10</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="4">
         <v>26.61</v>
       </c>
     </row>
@@ -2890,7 +2905,7 @@
       <c r="P45" s="2">
         <v>10</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="4">
         <v>14.33</v>
       </c>
     </row>
@@ -2943,7 +2958,7 @@
       <c r="P46" s="2">
         <v>10</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="4">
         <v>6.7</v>
       </c>
     </row>
@@ -2996,7 +3011,7 @@
       <c r="P47" s="2">
         <v>10</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="4">
         <v>1.94</v>
       </c>
     </row>
@@ -3049,7 +3064,7 @@
       <c r="P48" s="2">
         <v>10</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="4">
         <v>2.56</v>
       </c>
     </row>
@@ -3102,7 +3117,7 @@
       <c r="P49" s="2">
         <v>10</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="4">
         <v>-35.71</v>
       </c>
     </row>
@@ -3155,7 +3170,7 @@
       <c r="P50" s="2">
         <v>10</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50" s="4">
         <v>-15.76</v>
       </c>
     </row>
@@ -3208,7 +3223,7 @@
       <c r="P51" s="2">
         <v>10</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="4">
         <v>-9.6199999999999992</v>
       </c>
     </row>
@@ -3261,7 +3276,7 @@
       <c r="P52" s="2">
         <v>10</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="4">
         <v>3.87</v>
       </c>
     </row>
@@ -3314,7 +3329,7 @@
       <c r="P53" s="2">
         <v>10</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="4">
         <v>1.72</v>
       </c>
     </row>
@@ -3367,7 +3382,7 @@
       <c r="P54" s="2">
         <v>10</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="4">
         <v>0.88</v>
       </c>
     </row>
@@ -3420,7 +3435,7 @@
       <c r="P55" s="2">
         <v>10</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="4">
         <v>0.67</v>
       </c>
     </row>
@@ -3473,7 +3488,7 @@
       <c r="P56" s="2">
         <v>10</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="4">
         <v>-14.26</v>
       </c>
     </row>
@@ -3526,7 +3541,7 @@
       <c r="P57" s="2">
         <v>10</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57" s="4">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -3579,7 +3594,7 @@
       <c r="P58" s="2">
         <v>10</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="4">
         <v>0.92</v>
       </c>
     </row>
@@ -3632,7 +3647,7 @@
       <c r="P59" s="2">
         <v>10</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="4">
         <v>0.51</v>
       </c>
     </row>
@@ -3685,7 +3700,7 @@
       <c r="P60" s="2">
         <v>10</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="4">
         <v>-7.99</v>
       </c>
     </row>
@@ -3738,7 +3753,7 @@
       <c r="P61" s="2">
         <v>10</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61" s="4">
         <v>-6.83</v>
       </c>
     </row>
